--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decaturplastics-my.sharepoint.com/personal/nrousseaux_decaturplastics_mx/Documents/Flock AI/Flock Report WebApp/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{0DACA83B-43DF-412A-9E85-71C746A75BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56E8AF69-9B66-4EA4-9077-2187E3E328D7}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{0DACA83B-43DF-412A-9E85-71C746A75BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C995128D-1C9A-4F4B-85DB-7905EDBFD3AE}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{183B60C8-E604-4B1F-88DA-A7AA7B18F444}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>Part_Description</t>
   </si>
   <si>
-    <t>Class_name</t>
+    <t>Class_Name</t>
   </si>
 </sst>
 </file>
@@ -231,10 +231,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,7 +553,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
